--- a/public/Reservas.xlsx
+++ b/public/Reservas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1380CE-3C65-4110-A196-C88C07AAAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC06815E-DE03-4082-8ACD-45A47A781ED0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas_01-12-2023_31-12-2023 " sheetId="1" r:id="rId1"/>
@@ -5308,23 +5308,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102"/>
+      <selection pane="bottomLeft" activeCell="AA95" sqref="AA95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="176.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40912</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40997</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43566</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43911</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43912</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>44194</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44266</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>44340</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>44394</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44395</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>44441</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44476</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44478</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44481</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44485</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>44486</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>44487</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44488</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44489</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44490</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44491</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44493</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44494</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>44495</v>
       </c>
@@ -6478,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44496</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>44502</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>44503</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44504</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>44527</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44528</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44530</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44531</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44563</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>44564</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>44565</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>44566</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44567</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44568</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44569</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44570</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44571</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44575</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44578</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44579</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44590</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44591</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44592</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44593</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44594</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44595</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44596</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44597</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44598</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44613</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44614</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44615</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44623</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44626</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44627</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44628</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44632</v>
       </c>
@@ -8196,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44634</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44635</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44637</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44638</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44642</v>
       </c>
@@ -8431,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>44643</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>44644</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>44645</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>44646</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>44647</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>44648</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>44649</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>44651</v>
       </c>
@@ -8813,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>44652</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44653</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>44654</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>44655</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>44656</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44657</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>44658</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>44659</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>44660</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>44661</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>44662</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>44677</v>
       </c>
@@ -9374,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44683</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>44686</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44687</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44690</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44691</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>44692</v>
       </c>
@@ -9647,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>44693</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>44701</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>44702</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>44713</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>44714</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>44715</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44720</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>44721</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44743</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>44745</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>44746</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>44747</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>44748</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>44750</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>44751</v>
       </c>
@@ -10352,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>44752</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>44753</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44754</v>
       </c>
@@ -10502,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>44755</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>44758</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>44769</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>44770</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>44771</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>44772</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>44773</v>
       </c>
@@ -10828,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>44774</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>44775</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>44776</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>44777</v>
       </c>
@@ -11016,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>44778</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>44779</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>44780</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>44781</v>
       </c>
@@ -11198,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>44782</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44783</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>44789</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>44790</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44791</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>44794</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>44796</v>
       </c>
@@ -11509,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>44805</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44807</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44808</v>
       </c>
@@ -11647,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>44809</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>44810</v>
       </c>
@@ -11738,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>44812</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44813</v>
       </c>
@@ -11835,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>44814</v>
       </c>
@@ -11879,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>44815</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>44816</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>44817</v>
       </c>
@@ -12011,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>44821</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>44822</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>44823</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>44824</v>
       </c>
@@ -12190,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>44825</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>44826</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>44830</v>
       </c>
@@ -12319,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>44852</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>44854</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>44856</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>44859</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>44860</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>44869</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44870</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>44883</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>44884</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>44885</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>44887</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>44888</v>
       </c>
@@ -12877,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>44890</v>
       </c>
@@ -12921,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>44893</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>44896</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>44898</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>44899</v>
       </c>
@@ -13088,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>44900</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>44920</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>44921</v>
       </c>
@@ -13229,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>44922</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>44923</v>
       </c>
@@ -13317,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>44925</v>
       </c>
@@ -13364,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>44926</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>44927</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>44928</v>
       </c>
@@ -13502,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>44929</v>
       </c>
@@ -13552,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>44930</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>44931</v>
       </c>
@@ -13643,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>44932</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>44933</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>44934</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>44935</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>44954</v>
       </c>
@@ -13872,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>44955</v>
       </c>
@@ -13919,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>44956</v>
       </c>
@@ -13978,7 +13982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>44957</v>
       </c>
@@ -14028,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44958</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>44959</v>
       </c>
@@ -14107,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>44960</v>
       </c>
@@ -14154,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>44961</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>44962</v>
       </c>
@@ -14245,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>44963</v>
       </c>
@@ -14301,7 +14305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>44964</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>44965</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>44966</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>44967</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>44968</v>
       </c>
@@ -14542,7 +14546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>44969</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>44972</v>
       </c>
@@ -14633,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>44973</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>44974</v>
       </c>
@@ -14724,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>44976</v>
       </c>
@@ -14777,7 +14781,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>44977</v>
       </c>
@@ -14833,7 +14837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>44978</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>44979</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>44980</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>44981</v>
       </c>
@@ -15042,7 +15046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>44985</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>44987</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>44990</v>
       </c>
@@ -15168,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>44993</v>
       </c>
@@ -15203,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>44998</v>
       </c>
@@ -15250,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>44999</v>
       </c>
@@ -15291,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>45001</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>45004</v>
       </c>
@@ -15379,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>45005</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>45006</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>45007</v>
       </c>
@@ -15517,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>45008</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>45009</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>45010</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>45011</v>
       </c>
@@ -15702,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>45012</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>45013</v>
       </c>
@@ -15790,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>45014</v>
       </c>
@@ -15837,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>45015</v>
       </c>
@@ -15884,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>45016</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>45017</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>45018</v>
       </c>
@@ -16019,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>45019</v>
       </c>
@@ -16063,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>45020</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>45033</v>
       </c>
@@ -16154,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>45034</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>45038</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>45041</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>45056</v>
       </c>
@@ -16345,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>45057</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>45058</v>
       </c>
@@ -16442,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>45059</v>
       </c>
@@ -16495,7 +16499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>45060</v>
       </c>
@@ -16539,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>45061</v>
       </c>
@@ -16592,7 +16596,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>45062</v>
       </c>
@@ -16639,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45063</v>
       </c>
@@ -16683,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45064</v>
       </c>
@@ -16727,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>45065</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>45066</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>45067</v>
       </c>
@@ -16862,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>45068</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>45069</v>
       </c>
@@ -16953,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>45070</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>45071</v>
       </c>
@@ -17047,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>45072</v>
       </c>
@@ -17091,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>45074</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>45075</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>45076</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>45077</v>
       </c>
@@ -17288,7 +17292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>45078</v>
       </c>
@@ -17344,7 +17348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>45079</v>
       </c>
@@ -17388,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>45080</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>45081</v>
       </c>
@@ -17485,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>45082</v>
       </c>
@@ -17529,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>45083</v>
       </c>
@@ -17573,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>45084</v>
       </c>
@@ -17617,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>45085</v>
       </c>
@@ -17649,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>45092</v>
       </c>
@@ -17696,7 +17700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>45096</v>
       </c>
@@ -17743,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>45099</v>
       </c>
@@ -17787,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>45127</v>
       </c>
@@ -17837,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>45128</v>
       </c>
@@ -17884,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>45131</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>45150</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>45161</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>45163</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>45167</v>
       </c>
@@ -18092,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>45173</v>
       </c>
@@ -18136,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>45175</v>
       </c>
@@ -18180,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>45176</v>
       </c>
@@ -18227,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>45177</v>
       </c>
@@ -18274,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>45178</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>45179</v>
       </c>
@@ -18368,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>45180</v>
       </c>
@@ -18415,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>45181</v>
       </c>
@@ -18462,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>45182</v>
       </c>
@@ -18509,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>45183</v>
       </c>
@@ -18556,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>45184</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>45185</v>
       </c>
@@ -18650,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>45186</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>45187</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>45188</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>45189</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>45190</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>45194</v>
       </c>
@@ -18926,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>45195</v>
       </c>
@@ -18958,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>45196</v>
       </c>
@@ -19002,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>45197</v>
       </c>
@@ -19043,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>45198</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>45205</v>
       </c>
@@ -19122,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>45206</v>
       </c>
@@ -19169,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>45207</v>
       </c>
@@ -19225,7 +19229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>45208</v>
       </c>
@@ -19272,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>45209</v>
       </c>
@@ -19331,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>45210</v>
       </c>
@@ -19378,7 +19382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>45211</v>
       </c>
@@ -19422,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>45212</v>
       </c>
@@ -19469,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>45219</v>
       </c>
@@ -19516,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>45220</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>45221</v>
       </c>
@@ -19616,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>45222</v>
       </c>
@@ -19660,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>45223</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>45224</v>
       </c>
@@ -19754,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>45225</v>
       </c>
@@ -19798,7 +19802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>45226</v>
       </c>
@@ -19842,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>45227</v>
       </c>
@@ -19895,7 +19899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>45228</v>
       </c>
@@ -19951,7 +19955,7 @@
         <v>23.97</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>45229</v>
       </c>
@@ -19995,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>45230</v>
       </c>
@@ -20042,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>45231</v>
       </c>
@@ -20089,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>45245</v>
       </c>
@@ -20136,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>45246</v>
       </c>
@@ -20180,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>45248</v>
       </c>
@@ -20221,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>45249</v>
       </c>
@@ -20268,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>45250</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>45253</v>
       </c>
@@ -20362,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>45255</v>
       </c>
@@ -20403,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>45258</v>
       </c>
@@ -20435,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>45261</v>
       </c>
@@ -20482,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>45267</v>
       </c>
@@ -20526,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>45269</v>
       </c>
@@ -20570,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>45273</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>45275</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>45276</v>
       </c>
@@ -20708,7 +20712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>45277</v>
       </c>
@@ -20752,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>45278</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>45281</v>
       </c>
@@ -20843,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>45288</v>
       </c>
@@ -20887,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>45297</v>
       </c>
@@ -20931,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>45298</v>
       </c>
@@ -20975,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>45299</v>
       </c>
@@ -21022,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>45300</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>45305</v>
       </c>
@@ -21122,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>45306</v>
       </c>
@@ -21172,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>45308</v>
       </c>
@@ -21213,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>45309</v>
       </c>
@@ -21254,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>45317</v>
       </c>
@@ -21301,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>45318</v>
       </c>
@@ -21336,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>45319</v>
       </c>
@@ -21392,7 +21396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>45321</v>
       </c>
@@ -21436,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>45323</v>
       </c>
@@ -21477,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>45332</v>
       </c>
@@ -21521,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>45333</v>
       </c>
@@ -21565,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>45335</v>
       </c>
@@ -21609,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>45340</v>
       </c>
@@ -21653,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>45344</v>
       </c>
@@ -21700,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>45345</v>
       </c>
@@ -21750,7 +21754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>45346</v>
       </c>
@@ -21794,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>45347</v>
       </c>
@@ -21841,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>45348</v>
       </c>
@@ -21885,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>45349</v>
       </c>
@@ -21932,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>45350</v>
       </c>
@@ -21979,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>45351</v>
       </c>
@@ -22029,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>45352</v>
       </c>
@@ -22094,7 +22098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>45353</v>
       </c>
@@ -22141,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>45354</v>
       </c>
@@ -22188,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>45355</v>
       </c>
@@ -22235,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>45356</v>
       </c>
@@ -22282,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>45357</v>
       </c>
@@ -22329,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>45358</v>
       </c>
@@ -22376,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>45364</v>
       </c>
@@ -22423,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>45365</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>45366</v>
       </c>
@@ -22514,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>45367</v>
       </c>
@@ -22558,7 +22562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>45368</v>
       </c>
@@ -22602,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>45369</v>
       </c>
@@ -22649,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>45370</v>
       </c>
@@ -22708,7 +22712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>45371</v>
       </c>
@@ -22752,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>45372</v>
       </c>
@@ -22802,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>45373</v>
       </c>
@@ -22852,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>45374</v>
       </c>
@@ -22896,7 +22900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>45375</v>
       </c>
@@ -22940,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>45376</v>
       </c>
@@ -22987,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>45377</v>
       </c>
@@ -23031,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>45378</v>
       </c>
@@ -23078,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>45379</v>
       </c>
@@ -23128,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>45380</v>
       </c>
@@ -23178,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>45381</v>
       </c>
@@ -23225,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>45382</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>45383</v>
       </c>
@@ -23319,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>45384</v>
       </c>
@@ -23366,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>45385</v>
       </c>
@@ -23416,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>45386</v>
       </c>
@@ -23463,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>45387</v>
       </c>
@@ -23513,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>45388</v>
       </c>
@@ -23560,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>45389</v>
       </c>
@@ -23607,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>45390</v>
       </c>
@@ -23654,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>45391</v>
       </c>
@@ -23701,7 +23705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>45392</v>
       </c>
@@ -23748,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>45393</v>
       </c>
@@ -23792,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>45394</v>
       </c>
@@ -23839,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>45395</v>
       </c>
@@ -23886,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>45396</v>
       </c>
@@ -23936,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>45405</v>
       </c>
@@ -23983,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>45421</v>
       </c>
@@ -24030,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>45422</v>
       </c>
@@ -24074,7 +24078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>45423</v>
       </c>
@@ -24118,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>45439</v>
       </c>
@@ -24165,7 +24169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>45444</v>
       </c>
@@ -24215,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>45454</v>
       </c>
@@ -24262,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>45455</v>
       </c>
@@ -24306,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>45457</v>
       </c>
@@ -24353,7 +24357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>45459</v>
       </c>
@@ -24400,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>45460</v>
       </c>
@@ -24447,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>45461</v>
       </c>
@@ -24494,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>45462</v>
       </c>
@@ -24541,7 +24545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>45463</v>
       </c>
@@ -24585,7 +24589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>45464</v>
       </c>
@@ -24632,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>45466</v>
       </c>
@@ -24697,7 +24701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>45467</v>
       </c>
@@ -24741,7 +24745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>45469</v>
       </c>
@@ -24788,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>45471</v>
       </c>
@@ -24835,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>45472</v>
       </c>
@@ -24867,7 +24871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>45477</v>
       </c>
@@ -24911,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>45479</v>
       </c>
@@ -24952,7 +24956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>45480</v>
       </c>
@@ -24993,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>45487</v>
       </c>
@@ -25037,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>45490</v>
       </c>
@@ -25084,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>45494</v>
       </c>
@@ -25125,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>45495</v>
       </c>
@@ -25169,7 +25173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>45496</v>
       </c>
@@ -25207,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>45499</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>45502</v>
       </c>
@@ -25289,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>45516</v>
       </c>
@@ -25333,7 +25337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>45524</v>
       </c>
@@ -25383,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>45525</v>
       </c>
@@ -25415,7 +25419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>45526</v>
       </c>
@@ -25465,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>45534</v>
       </c>
@@ -25512,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>45535</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>45536</v>
       </c>
@@ -25603,7 +25607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>45537</v>
       </c>
@@ -25650,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>45538</v>
       </c>
@@ -25700,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>45540</v>
       </c>
@@ -25756,7 +25760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>45541</v>
       </c>
@@ -25803,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>45543</v>
       </c>
@@ -25847,7 +25851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>45544</v>
       </c>
@@ -25894,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>45545</v>
       </c>
@@ -25950,7 +25954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>45546</v>
       </c>
@@ -26006,7 +26010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>45547</v>
       </c>
@@ -26050,7 +26054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>45548</v>
       </c>
@@ -26100,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>45549</v>
       </c>
@@ -26147,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>45552</v>
       </c>
@@ -26191,7 +26195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>45553</v>
       </c>
@@ -26235,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>45555</v>
       </c>
@@ -26282,7 +26286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>45556</v>
       </c>
@@ -26326,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>45557</v>
       </c>
@@ -26370,7 +26374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>45558</v>
       </c>
@@ -26414,7 +26418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>45559</v>
       </c>
@@ -26458,7 +26462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>45560</v>
       </c>
@@ -26502,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>45561</v>
       </c>
@@ -26549,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>45562</v>
       </c>
@@ -26590,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>45568</v>
       </c>
@@ -26622,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>45569</v>
       </c>
@@ -26669,7 +26673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>45570</v>
       </c>
@@ -26716,7 +26720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>45576</v>
       </c>
@@ -26757,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>45588</v>
       </c>
@@ -26801,7 +26805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>45589</v>
       </c>
@@ -26848,7 +26852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>45595</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>45597</v>
       </c>
@@ -26927,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>45598</v>
       </c>
@@ -26965,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>45603</v>
       </c>
@@ -27021,7 +27025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>45607</v>
       </c>
@@ -27068,7 +27072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>45621</v>
       </c>
@@ -27115,7 +27119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>45622</v>
       </c>
@@ -27159,7 +27163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>45639</v>
       </c>
@@ -27203,7 +27207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>45640</v>
       </c>
@@ -27250,7 +27254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>45641</v>
       </c>
@@ -27297,7 +27301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>45642</v>
       </c>
@@ -27344,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>45643</v>
       </c>
@@ -27388,7 +27392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>45644</v>
       </c>
@@ -27432,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>45645</v>
       </c>
@@ -27476,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>45646</v>
       </c>
@@ -27523,7 +27527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>45647</v>
       </c>
@@ -27570,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>45648</v>
       </c>
@@ -27617,7 +27621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>45649</v>
       </c>
@@ -27664,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>45672</v>
       </c>
@@ -27717,7 +27721,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>45678</v>
       </c>
@@ -27752,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>45679</v>
       </c>
@@ -27799,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>45680</v>
       </c>
@@ -27843,7 +27847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>45681</v>
       </c>
@@ -27896,7 +27900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>45690</v>
       </c>
@@ -27931,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>45692</v>
       </c>
@@ -27978,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>45693</v>
       </c>
@@ -28025,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>45694</v>
       </c>
@@ -28081,7 +28085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>45696</v>
       </c>
@@ -28128,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>45697</v>
       </c>
@@ -28172,7 +28176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>45698</v>
       </c>
@@ -28219,7 +28223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>45699</v>
       </c>
@@ -28263,7 +28267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>45700</v>
       </c>
@@ -28307,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>45701</v>
       </c>
@@ -28351,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>45703</v>
       </c>
@@ -28395,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>45704</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>45705</v>
       </c>
@@ -28489,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>45706</v>
       </c>
@@ -28536,7 +28540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>45707</v>
       </c>
@@ -28583,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>45708</v>
       </c>
@@ -28624,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>45709</v>
       </c>
@@ -28671,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>45710</v>
       </c>
@@ -28715,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>45711</v>
       </c>
@@ -28762,7 +28766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>45712</v>
       </c>
@@ -28809,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>45713</v>
       </c>
@@ -28853,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>45714</v>
       </c>
@@ -28912,7 +28916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>45731</v>
       </c>
@@ -28956,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>45733</v>
       </c>
@@ -29006,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>45736</v>
       </c>
@@ -29050,7 +29054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>45737</v>
       </c>
@@ -29082,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>45741</v>
       </c>
@@ -29141,7 +29145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>45747</v>
       </c>
@@ -29188,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>45749</v>
       </c>
@@ -29235,7 +29239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>45750</v>
       </c>
@@ -29279,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>45751</v>
       </c>
@@ -29326,7 +29330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>45753</v>
       </c>
@@ -29376,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>45754</v>
       </c>
@@ -29411,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>45755</v>
       </c>
@@ -29446,7 +29450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>45760</v>
       </c>
@@ -29490,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>45765</v>
       </c>
@@ -29525,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>45770</v>
       </c>
@@ -29572,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>45771</v>
       </c>
@@ -29616,7 +29620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>45772</v>
       </c>
@@ -29660,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>45773</v>
       </c>
@@ -29707,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>45774</v>
       </c>
@@ -29751,7 +29755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>45775</v>
       </c>
@@ -29807,7 +29811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>45776</v>
       </c>
@@ -29854,7 +29858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>45777</v>
       </c>
@@ -29901,7 +29905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>45778</v>
       </c>
@@ -29957,7 +29961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>45779</v>
       </c>
@@ -30016,7 +30020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>45794</v>
       </c>
@@ -30060,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>45795</v>
       </c>
@@ -30107,7 +30111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>45796</v>
       </c>
@@ -30151,7 +30155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>45797</v>
       </c>
@@ -30195,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>45798</v>
       </c>
@@ -30242,7 +30246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>45799</v>
       </c>
@@ -30286,7 +30290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>45800</v>
       </c>
@@ -30330,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>45801</v>
       </c>
@@ -30374,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>45802</v>
       </c>
@@ -30418,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>45803</v>
       </c>
@@ -30465,7 +30469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>45804</v>
       </c>
@@ -30509,7 +30513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>45805</v>
       </c>
@@ -30553,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>45806</v>
       </c>
@@ -30597,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>45807</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>45808</v>
       </c>
@@ -30688,7 +30692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>45809</v>
       </c>
@@ -30732,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>45813</v>
       </c>
@@ -30779,7 +30783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>45814</v>
       </c>
@@ -30823,7 +30827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>45815</v>
       </c>
@@ -30867,7 +30871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>45816</v>
       </c>
@@ -30911,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>45817</v>
       </c>
@@ -30958,7 +30962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>45819</v>
       </c>
@@ -31011,7 +31015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>45820</v>
       </c>
@@ -31058,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>45821</v>
       </c>
@@ -31105,7 +31109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>45822</v>
       </c>
@@ -31152,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>45823</v>
       </c>
@@ -31199,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>45824</v>
       </c>
@@ -31243,7 +31247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>45825</v>
       </c>
@@ -31290,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>45830</v>
       </c>
@@ -31334,7 +31338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>45832</v>
       </c>
@@ -31381,7 +31385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>45833</v>
       </c>
@@ -31425,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>45844</v>
       </c>
@@ -31460,7 +31464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>45845</v>
       </c>
@@ -31504,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>45848</v>
       </c>
@@ -31566,7 +31570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>45850</v>
       </c>
@@ -31619,7 +31623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>45851</v>
       </c>
@@ -31657,7 +31661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>45852</v>
       </c>
@@ -31701,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>45853</v>
       </c>
@@ -31748,7 +31752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>45879</v>
       </c>
@@ -31795,7 +31799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>45884</v>
       </c>
@@ -31839,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>45886</v>
       </c>
@@ -31886,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>45887</v>
       </c>
@@ -31933,7 +31937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>45888</v>
       </c>
@@ -31980,7 +31984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>45889</v>
       </c>
@@ -32030,7 +32034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>45890</v>
       </c>
@@ -32074,7 +32078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>45891</v>
       </c>
@@ -32121,7 +32125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>45892</v>
       </c>
@@ -32168,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>45893</v>
       </c>
@@ -32215,7 +32219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>45894</v>
       </c>
@@ -32262,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>45895</v>
       </c>
@@ -32309,7 +32313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>45896</v>
       </c>
@@ -32359,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>45897</v>
       </c>
@@ -32406,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>45898</v>
       </c>
@@ -32450,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>45899</v>
       </c>
@@ -32503,7 +32507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>45902</v>
       </c>
@@ -32550,7 +32554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>45904</v>
       </c>
@@ -32597,7 +32601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>45910</v>
       </c>
@@ -32644,7 +32648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>45911</v>
       </c>
@@ -32688,7 +32692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>45912</v>
       </c>
@@ -32732,7 +32736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>45915</v>
       </c>
@@ -32776,7 +32780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>45918</v>
       </c>
@@ -32823,7 +32827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>45919</v>
       </c>
@@ -32864,7 +32868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>45920</v>
       </c>
@@ -32917,7 +32921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>45921</v>
       </c>
@@ -32961,7 +32965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>45922</v>
       </c>
@@ -33005,7 +33009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>45923</v>
       </c>
@@ -33052,7 +33056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>45924</v>
       </c>
@@ -33108,7 +33112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>45925</v>
       </c>
@@ -33155,7 +33159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>45926</v>
       </c>
@@ -33202,7 +33206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>45927</v>
       </c>
@@ -33246,7 +33250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>45928</v>
       </c>
@@ -33293,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>45929</v>
       </c>
@@ -33340,7 +33344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>45930</v>
       </c>
@@ -33387,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>45939</v>
       </c>
@@ -33434,7 +33438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>45941</v>
       </c>
@@ -33481,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>45942</v>
       </c>
@@ -33531,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>45943</v>
       </c>
@@ -33575,7 +33579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>45944</v>
       </c>
@@ -33619,7 +33623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>45946</v>
       </c>
@@ -33666,7 +33670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>45947</v>
       </c>
@@ -33713,7 +33717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>45951</v>
       </c>
@@ -33757,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>45952</v>
       </c>
@@ -33801,7 +33805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>45953</v>
       </c>
@@ -33848,7 +33852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>45956</v>
       </c>
@@ -33886,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>45957</v>
       </c>
@@ -33933,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>45962</v>
       </c>
@@ -33980,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>45971</v>
       </c>
@@ -34024,7 +34028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>45977</v>
       </c>
@@ -34056,7 +34060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>45978</v>
       </c>
@@ -34106,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>45981</v>
       </c>
@@ -34156,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>45982</v>
       </c>
@@ -34209,7 +34213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>45987</v>
       </c>
@@ -34256,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>45992</v>
       </c>
@@ -34321,7 +34325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>45994</v>
       </c>
@@ -34371,7 +34375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>45996</v>
       </c>
@@ -34415,7 +34419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>46002</v>
       </c>
@@ -34474,7 +34478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>46009</v>
       </c>
@@ -34518,7 +34522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>46020</v>
       </c>
@@ -34565,7 +34569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>46021</v>
       </c>
@@ -34615,7 +34619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>46022</v>
       </c>
@@ -34659,7 +34663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>46023</v>
       </c>
@@ -34706,7 +34710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>46025</v>
       </c>
@@ -34756,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>46026</v>
       </c>
@@ -34791,7 +34795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>46027</v>
       </c>
@@ -34847,7 +34851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>46028</v>
       </c>
@@ -34891,7 +34895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>46029</v>
       </c>
@@ -34935,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>46030</v>
       </c>
@@ -34982,7 +34986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>46031</v>
       </c>
@@ -35029,7 +35033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>46033</v>
       </c>
@@ -35073,7 +35077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>46038</v>
       </c>
@@ -35114,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>46040</v>
       </c>
@@ -35158,7 +35162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>46041</v>
       </c>
@@ -35202,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>46042</v>
       </c>
@@ -35246,7 +35250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>46058</v>
       </c>
@@ -35290,7 +35294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>46059</v>
       </c>
@@ -35343,7 +35347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>46060</v>
       </c>
@@ -35396,7 +35400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>46061</v>
       </c>
@@ -35446,7 +35450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>46062</v>
       </c>
@@ -35493,7 +35497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>46063</v>
       </c>
@@ -35540,7 +35544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>46064</v>
       </c>
@@ -35584,7 +35588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>46065</v>
       </c>
@@ -35631,7 +35635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>46066</v>
       </c>
@@ -35687,7 +35691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>46067</v>
       </c>
@@ -35734,7 +35738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>46068</v>
       </c>
@@ -35781,7 +35785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>46069</v>
       </c>
@@ -35825,7 +35829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>46070</v>
       </c>
@@ -35872,7 +35876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>46071</v>
       </c>
@@ -35919,7 +35923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>46072</v>
       </c>
@@ -35966,7 +35970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>46073</v>
       </c>
@@ -36034,7 +36038,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="665" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>46074</v>
       </c>
@@ -36081,7 +36085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>46075</v>
       </c>
@@ -36122,7 +36126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>46077</v>
       </c>
@@ -36166,7 +36170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>46091</v>
       </c>
@@ -36222,7 +36226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>46092</v>
       </c>
@@ -36266,7 +36270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>46096</v>
       </c>
@@ -36310,7 +36314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>46098</v>
       </c>
@@ -36354,7 +36358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>46102</v>
       </c>
@@ -36398,7 +36402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>46103</v>
       </c>
@@ -36442,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>46104</v>
       </c>
@@ -36486,7 +36490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>46105</v>
       </c>
@@ -36530,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>46106</v>
       </c>
@@ -36565,7 +36569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>46107</v>
       </c>
@@ -36609,7 +36613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>46108</v>
       </c>
@@ -36671,7 +36675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="679" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>46109</v>
       </c>
@@ -36715,7 +36719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>46110</v>
       </c>
@@ -36759,7 +36763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>46112</v>
       </c>
@@ -36806,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>46122</v>
       </c>
@@ -36853,7 +36857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>46123</v>
       </c>
@@ -36888,7 +36892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>46126</v>
       </c>
@@ -36932,7 +36936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>46127</v>
       </c>
@@ -36973,7 +36977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>46129</v>
       </c>
@@ -37020,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>46130</v>
       </c>
@@ -37061,7 +37065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>46131</v>
       </c>
@@ -37105,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>46134</v>
       </c>
@@ -37149,7 +37153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>46139</v>
       </c>
@@ -37193,7 +37197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>46147</v>
       </c>
@@ -37240,7 +37244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>46157</v>
       </c>
@@ -37281,7 +37285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>46158</v>
       </c>
@@ -37322,7 +37326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>46159</v>
       </c>
@@ -37360,7 +37364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>46162</v>
       </c>
@@ -37404,7 +37408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>46163</v>
       </c>
@@ -37448,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>46164</v>
       </c>
@@ -37492,7 +37496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>46166</v>
       </c>
@@ -37536,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>46168</v>
       </c>
@@ -37583,7 +37587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>46176</v>
       </c>
@@ -37630,7 +37634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>46177</v>
       </c>
@@ -37671,7 +37675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>46183</v>
       </c>
@@ -37718,7 +37722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>46192</v>
       </c>
@@ -37762,7 +37766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>46193</v>
       </c>
@@ -37809,7 +37813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>46194</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>46195</v>
       </c>
@@ -37903,7 +37907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>46199</v>
       </c>
@@ -37935,7 +37939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>46221</v>
       </c>
@@ -37982,7 +37986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>46222</v>
       </c>
@@ -38029,7 +38033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>46252</v>
       </c>
@@ -38088,7 +38092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="711" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>46253</v>
       </c>
@@ -38135,7 +38139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>46254</v>
       </c>
@@ -38182,7 +38186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>46255</v>
       </c>
@@ -38229,7 +38233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>46256</v>
       </c>
@@ -38276,7 +38280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>46257</v>
       </c>
@@ -38320,7 +38324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>46275</v>
       </c>
@@ -38370,7 +38374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>46276</v>
       </c>
@@ -38420,7 +38424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>46277</v>
       </c>
@@ -38467,7 +38471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>46278</v>
       </c>
@@ -38514,7 +38518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>46279</v>
       </c>
@@ -38561,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>46280</v>
       </c>
@@ -38608,7 +38612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>46281</v>
       </c>
@@ -38655,7 +38659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>46284</v>
       </c>
@@ -38702,7 +38706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>46285</v>
       </c>
@@ -38746,7 +38750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>46286</v>
       </c>
@@ -38790,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>46287</v>
       </c>
@@ -38837,7 +38841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>46288</v>
       </c>
@@ -38884,7 +38888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>46289</v>
       </c>
@@ -38931,7 +38935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>46290</v>
       </c>
@@ -38975,7 +38979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>46291</v>
       </c>
@@ -39019,7 +39023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>46292</v>
       </c>
@@ -39051,7 +39055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>46297</v>
       </c>
@@ -39095,7 +39099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>46301</v>
       </c>
@@ -39151,7 +39155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="734" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>46303</v>
       </c>
@@ -39192,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>46319</v>
       </c>
@@ -39239,7 +39243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>46320</v>
       </c>
@@ -39286,7 +39290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>46321</v>
       </c>
@@ -39330,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>46325</v>
       </c>
@@ -39377,7 +39381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>46335</v>
       </c>
@@ -39418,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>46340</v>
       </c>
@@ -39465,7 +39469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>46342</v>
       </c>
@@ -39509,7 +39513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>46343</v>
       </c>
@@ -39553,7 +39557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>46353</v>
       </c>
@@ -39597,7 +39601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>46355</v>
       </c>
@@ -39629,7 +39633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>46382</v>
       </c>
@@ -39673,7 +39677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>46388</v>
       </c>
@@ -39705,7 +39709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>46389</v>
       </c>
@@ -39737,7 +39741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>46400</v>
       </c>
@@ -39784,7 +39788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>46403</v>
       </c>
@@ -39828,7 +39832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>46407</v>
       </c>
@@ -39875,7 +39879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>46409</v>
       </c>
@@ -39922,7 +39926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>46410</v>
       </c>
@@ -39969,7 +39973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>46411</v>
       </c>
@@ -40016,7 +40020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>46412</v>
       </c>
@@ -40063,7 +40067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>46413</v>
       </c>
@@ -40095,7 +40099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>46417</v>
       </c>
@@ -40139,7 +40143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>46419</v>
       </c>
@@ -40186,7 +40190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>46421</v>
       </c>
@@ -40239,7 +40243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>46422</v>
       </c>
@@ -40280,7 +40284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>46425</v>
       </c>
@@ -40339,7 +40343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>46426</v>
       </c>
@@ -40398,7 +40402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>46466</v>
       </c>

--- a/public/Reservas.xlsx
+++ b/public/Reservas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\boocking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1380CE-3C65-4110-A196-C88C07AAAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AB2DC-7526-4243-AFB6-49D15B8F0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5308,10 +5308,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102"/>
+      <selection pane="bottomLeft" activeCell="M296" sqref="M296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/Reservas.xlsx
+++ b/public/Reservas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\boocking\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AB2DC-7526-4243-AFB6-49D15B8F0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE79550-8915-40D6-BC4D-0D8DFD8C7E85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas_01-12-2023_31-12-2023 " sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reservas_01-12-2023_31-12-2023 '!$A$1:$AC$762</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5308,23 +5311,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="M296" sqref="M296"/>
+      <selection pane="bottomLeft" activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="176.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="91.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40912</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40997</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43566</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43911</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43912</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>44194</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44266</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>44340</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>44394</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44395</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>44441</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44476</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44478</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44481</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44485</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>44486</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>44487</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44488</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44489</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44490</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44491</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44493</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44494</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>44495</v>
       </c>
@@ -6478,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44496</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>44502</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>44503</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44504</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>44527</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44528</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44530</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44531</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44563</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>44564</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>44565</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>44566</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44567</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44568</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44569</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>44570</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44571</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44575</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44578</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44579</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44590</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44591</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44592</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44593</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44594</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44595</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44596</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44597</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44598</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44613</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44614</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44615</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44623</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44626</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44627</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44628</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44632</v>
       </c>
@@ -8196,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44634</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44635</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44637</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44638</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44642</v>
       </c>
@@ -8431,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>44643</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>44644</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>44645</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>44646</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>44647</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>44648</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>44649</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>44651</v>
       </c>
@@ -8813,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>44652</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44653</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>44654</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>44655</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>44656</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44657</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>44658</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>44659</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>44660</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>44661</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>44662</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>44677</v>
       </c>
@@ -9374,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44683</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>44686</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44687</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44690</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44691</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>44692</v>
       </c>
@@ -9647,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>44693</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>44701</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>44702</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>44713</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>44714</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>44715</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44720</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>44721</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>44743</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>44745</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>44746</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>44747</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>44748</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>44750</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>44751</v>
       </c>
@@ -10352,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>44752</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>44753</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44754</v>
       </c>
@@ -10502,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>44755</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>44758</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>44769</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>44770</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>44771</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>44772</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>44773</v>
       </c>
@@ -10828,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>44774</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>44775</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>44776</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>44777</v>
       </c>
@@ -11016,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>44778</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>44779</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>44780</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>44781</v>
       </c>
@@ -11198,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>44782</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44783</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>44789</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>44790</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44791</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>44794</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>44796</v>
       </c>
@@ -11509,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>44805</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44807</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44808</v>
       </c>
@@ -11647,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>44809</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>44810</v>
       </c>
@@ -11738,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>44812</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44813</v>
       </c>
@@ -11835,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>44814</v>
       </c>
@@ -11879,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>44815</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>44816</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>44817</v>
       </c>
@@ -12011,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>44821</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>44822</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>44823</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>44824</v>
       </c>
@@ -12190,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>44825</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>44826</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>44830</v>
       </c>
@@ -12319,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>44852</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>44854</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>44856</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>44859</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>44860</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>44869</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>44870</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>44883</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>44884</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>44885</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>44887</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>44888</v>
       </c>
@@ -12877,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>44890</v>
       </c>
@@ -12921,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>44893</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>44896</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>44898</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>44899</v>
       </c>
@@ -13088,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>44900</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>44920</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>44921</v>
       </c>
@@ -13229,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>44922</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>44923</v>
       </c>
@@ -13317,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>44925</v>
       </c>
@@ -13364,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>44926</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>44927</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>44928</v>
       </c>
@@ -13502,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>44929</v>
       </c>
@@ -13552,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>44930</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>44931</v>
       </c>
@@ -13643,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>44932</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>44933</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>44934</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>44935</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>44954</v>
       </c>
@@ -13872,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>44955</v>
       </c>
@@ -13919,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>44956</v>
       </c>
@@ -13978,7 +13982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>44957</v>
       </c>
@@ -14028,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44958</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>44959</v>
       </c>
@@ -14107,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>44960</v>
       </c>
@@ -14154,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>44961</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>44962</v>
       </c>
@@ -14245,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>44963</v>
       </c>
@@ -14301,7 +14305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>44964</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>44965</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>44966</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>44967</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>44968</v>
       </c>
@@ -14542,7 +14546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>44969</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>44972</v>
       </c>
@@ -14633,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>44973</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>44974</v>
       </c>
@@ -14724,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>44976</v>
       </c>
@@ -14777,7 +14781,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>44977</v>
       </c>
@@ -14833,7 +14837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>44978</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>44979</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>44980</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>44981</v>
       </c>
@@ -15042,7 +15046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>44985</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>44987</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>44990</v>
       </c>
@@ -15168,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>44993</v>
       </c>
@@ -15203,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>44998</v>
       </c>
@@ -15250,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>44999</v>
       </c>
@@ -15291,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>45001</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>45004</v>
       </c>
@@ -15379,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>45005</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>45006</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>45007</v>
       </c>
@@ -15517,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>45008</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>45009</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>45010</v>
       </c>
@@ -15658,7 +15662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>45011</v>
       </c>
@@ -15702,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>45012</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>45013</v>
       </c>
@@ -15790,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>45014</v>
       </c>
@@ -15837,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>45015</v>
       </c>
@@ -15884,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>45016</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>45017</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>45018</v>
       </c>
@@ -16019,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>45019</v>
       </c>
@@ -16063,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>45020</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>45033</v>
       </c>
@@ -16154,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>45034</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>45038</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>45041</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>45056</v>
       </c>
@@ -16345,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>45057</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>45058</v>
       </c>
@@ -16442,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>45059</v>
       </c>
@@ -16495,7 +16499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>45060</v>
       </c>
@@ -16539,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>45061</v>
       </c>
@@ -16592,7 +16596,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>45062</v>
       </c>
@@ -16639,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45063</v>
       </c>
@@ -16683,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45064</v>
       </c>
@@ -16727,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>45065</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>45066</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>45067</v>
       </c>
@@ -16862,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>45068</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>45069</v>
       </c>
@@ -16953,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>45070</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>45071</v>
       </c>
@@ -17047,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>45072</v>
       </c>
@@ -17091,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>45074</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>45075</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>45076</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>45077</v>
       </c>
@@ -17288,7 +17292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>45078</v>
       </c>
@@ -17344,7 +17348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>45079</v>
       </c>
@@ -17388,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>45080</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>45081</v>
       </c>
@@ -17485,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>45082</v>
       </c>
@@ -17529,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>45083</v>
       </c>
@@ -17573,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>45084</v>
       </c>
@@ -17617,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>45085</v>
       </c>
@@ -17649,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>45092</v>
       </c>
@@ -17696,7 +17700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>45096</v>
       </c>
@@ -17743,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>45099</v>
       </c>
@@ -17787,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>45127</v>
       </c>
@@ -17837,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>45128</v>
       </c>
@@ -17884,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>45131</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>45150</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>45161</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>45163</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>45167</v>
       </c>
@@ -18092,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>45173</v>
       </c>
@@ -18136,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>45175</v>
       </c>
@@ -18180,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>45176</v>
       </c>
@@ -18227,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>45177</v>
       </c>
@@ -18274,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>45178</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>45179</v>
       </c>
@@ -18368,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>45180</v>
       </c>
@@ -18415,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>45181</v>
       </c>
@@ -18462,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>45182</v>
       </c>
@@ -18509,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>45183</v>
       </c>
@@ -18556,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>45184</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>45185</v>
       </c>
@@ -18650,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>45186</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>45187</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>45188</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>45189</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>45190</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>45194</v>
       </c>
@@ -18926,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>45195</v>
       </c>
@@ -18958,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>45196</v>
       </c>
@@ -19002,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>45197</v>
       </c>
@@ -19043,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>45198</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>45205</v>
       </c>
@@ -19122,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>45206</v>
       </c>
@@ -19169,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>45207</v>
       </c>
@@ -19225,7 +19229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>45208</v>
       </c>
@@ -19272,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>45209</v>
       </c>
@@ -19331,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>45210</v>
       </c>
@@ -19378,7 +19382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>45211</v>
       </c>
@@ -19422,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>45212</v>
       </c>
@@ -19469,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>45219</v>
       </c>
@@ -19516,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>45220</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>45221</v>
       </c>
@@ -19616,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>45222</v>
       </c>
@@ -19660,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>45223</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>45224</v>
       </c>
@@ -19754,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>45225</v>
       </c>
@@ -19798,7 +19802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>45226</v>
       </c>
@@ -19842,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>45227</v>
       </c>
@@ -19895,7 +19899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>45228</v>
       </c>
@@ -19951,7 +19955,7 @@
         <v>23.97</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>45229</v>
       </c>
@@ -19995,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>45230</v>
       </c>
@@ -20042,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>45231</v>
       </c>
@@ -20089,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>45245</v>
       </c>
@@ -20136,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>45246</v>
       </c>
@@ -20180,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>45248</v>
       </c>
@@ -20221,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>45249</v>
       </c>
@@ -20268,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>45250</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>45253</v>
       </c>
@@ -20362,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>45255</v>
       </c>
@@ -20403,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>45258</v>
       </c>
@@ -20435,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>45261</v>
       </c>
@@ -20482,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>45267</v>
       </c>
@@ -20526,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>45269</v>
       </c>
@@ -20570,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>45273</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>45275</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>45276</v>
       </c>
@@ -20708,7 +20712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>45277</v>
       </c>
@@ -20752,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>45278</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>45281</v>
       </c>
@@ -20843,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>45288</v>
       </c>
@@ -20887,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>45297</v>
       </c>
@@ -20931,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>45298</v>
       </c>
@@ -20975,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>45299</v>
       </c>
@@ -21022,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>45300</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>45305</v>
       </c>
@@ -21122,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>45306</v>
       </c>
@@ -21172,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>45308</v>
       </c>
@@ -21213,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>45309</v>
       </c>
@@ -21254,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>45317</v>
       </c>
@@ -21301,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>45318</v>
       </c>
@@ -21336,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>45319</v>
       </c>
@@ -21392,7 +21396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>45321</v>
       </c>
@@ -21436,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>45323</v>
       </c>
@@ -21477,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>45332</v>
       </c>
@@ -21521,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>45333</v>
       </c>
@@ -21565,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>45335</v>
       </c>
@@ -21609,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>45340</v>
       </c>
@@ -21653,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>45344</v>
       </c>
@@ -21700,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>45345</v>
       </c>
@@ -21750,7 +21754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>45346</v>
       </c>
@@ -21794,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>45347</v>
       </c>
@@ -21841,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>45348</v>
       </c>
@@ -21885,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>45349</v>
       </c>
@@ -21932,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>45350</v>
       </c>
@@ -21979,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>45351</v>
       </c>
@@ -22029,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>45352</v>
       </c>
@@ -22094,7 +22098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>45353</v>
       </c>
@@ -22141,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>45354</v>
       </c>
@@ -22188,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>45355</v>
       </c>
@@ -22235,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>45356</v>
       </c>
@@ -22282,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>45357</v>
       </c>
@@ -22329,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>45358</v>
       </c>
@@ -22376,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>45364</v>
       </c>
@@ -22423,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>45365</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>45366</v>
       </c>
@@ -22514,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>45367</v>
       </c>
@@ -22558,7 +22562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>45368</v>
       </c>
@@ -22602,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>45369</v>
       </c>
@@ -22649,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>45370</v>
       </c>
@@ -22708,7 +22712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>45371</v>
       </c>
@@ -22752,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>45372</v>
       </c>
@@ -22802,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>45373</v>
       </c>
@@ -22852,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>45374</v>
       </c>
@@ -22896,7 +22900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>45375</v>
       </c>
@@ -22940,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>45376</v>
       </c>
@@ -22987,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>45377</v>
       </c>
@@ -23031,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>45378</v>
       </c>
@@ -23078,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>45379</v>
       </c>
@@ -23128,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>45380</v>
       </c>
@@ -23178,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>45381</v>
       </c>
@@ -23225,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>45382</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>45383</v>
       </c>
@@ -23319,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>45384</v>
       </c>
@@ -23366,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>45385</v>
       </c>
@@ -23416,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>45386</v>
       </c>
@@ -23463,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>45387</v>
       </c>
@@ -23513,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>45388</v>
       </c>
@@ -23560,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>45389</v>
       </c>
@@ -23607,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>45390</v>
       </c>
@@ -23654,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>45391</v>
       </c>
@@ -23701,7 +23705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>45392</v>
       </c>
@@ -23748,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>45393</v>
       </c>
@@ -23792,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>45394</v>
       </c>
@@ -23839,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>45395</v>
       </c>
@@ -23886,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>45396</v>
       </c>
@@ -23936,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>45405</v>
       </c>
@@ -23983,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>45421</v>
       </c>
@@ -24030,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>45422</v>
       </c>
@@ -24074,7 +24078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>45423</v>
       </c>
@@ -24118,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>45439</v>
       </c>
@@ -24165,7 +24169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>45444</v>
       </c>
@@ -24215,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>45454</v>
       </c>
@@ -24262,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>45455</v>
       </c>
@@ -24306,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>45457</v>
       </c>
@@ -24353,7 +24357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>45459</v>
       </c>
@@ -24400,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>45460</v>
       </c>
@@ -24447,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>45461</v>
       </c>
@@ -24494,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>45462</v>
       </c>
@@ -24541,7 +24545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>45463</v>
       </c>
@@ -24585,7 +24589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>45464</v>
       </c>
@@ -24632,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>45466</v>
       </c>
@@ -24697,7 +24701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>45467</v>
       </c>
@@ -24741,7 +24745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>45469</v>
       </c>
@@ -24788,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>45471</v>
       </c>
@@ -24835,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>45472</v>
       </c>
@@ -24867,7 +24871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>45477</v>
       </c>
@@ -24911,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>45479</v>
       </c>
@@ -24952,7 +24956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>45480</v>
       </c>
@@ -24993,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>45487</v>
       </c>
@@ -25037,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>45490</v>
       </c>
@@ -25084,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>45494</v>
       </c>
@@ -25125,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>45495</v>
       </c>
@@ -25169,7 +25173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>45496</v>
       </c>
@@ -25207,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>45499</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>45502</v>
       </c>
@@ -25289,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>45516</v>
       </c>
@@ -25333,7 +25337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>45524</v>
       </c>
@@ -25383,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>45525</v>
       </c>
@@ -25415,7 +25419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>45526</v>
       </c>
@@ -25465,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>45534</v>
       </c>
@@ -25512,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>45535</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>45536</v>
       </c>
@@ -25603,7 +25607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>45537</v>
       </c>
@@ -25650,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>45538</v>
       </c>
@@ -25700,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>45540</v>
       </c>
@@ -25756,7 +25760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>45541</v>
       </c>
@@ -25803,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>45543</v>
       </c>
@@ -25847,7 +25851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>45544</v>
       </c>
@@ -25894,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>45545</v>
       </c>
@@ -25950,7 +25954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>45546</v>
       </c>
@@ -26006,7 +26010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>45547</v>
       </c>
@@ -26050,7 +26054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>45548</v>
       </c>
@@ -26100,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>45549</v>
       </c>
@@ -26147,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>45552</v>
       </c>
@@ -26191,7 +26195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>45553</v>
       </c>
@@ -26235,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>45555</v>
       </c>
@@ -26282,7 +26286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>45556</v>
       </c>
@@ -26326,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>45557</v>
       </c>
@@ -26370,7 +26374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>45558</v>
       </c>
@@ -26414,7 +26418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>45559</v>
       </c>
@@ -26458,7 +26462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>45560</v>
       </c>
@@ -26502,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>45561</v>
       </c>
@@ -26549,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>45562</v>
       </c>
@@ -26590,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>45568</v>
       </c>
@@ -26622,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>45569</v>
       </c>
@@ -26669,7 +26673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>45570</v>
       </c>
@@ -26716,7 +26720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>45576</v>
       </c>
@@ -26757,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>45588</v>
       </c>
@@ -26801,7 +26805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>45589</v>
       </c>
@@ -26848,7 +26852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>45595</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>45597</v>
       </c>
@@ -26927,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>45598</v>
       </c>
@@ -26965,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>45603</v>
       </c>
@@ -27021,7 +27025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>45607</v>
       </c>
@@ -27068,7 +27072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>45621</v>
       </c>
@@ -27115,7 +27119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>45622</v>
       </c>
@@ -27159,7 +27163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>45639</v>
       </c>
@@ -27203,7 +27207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>45640</v>
       </c>
@@ -27250,7 +27254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>45641</v>
       </c>
@@ -27297,7 +27301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>45642</v>
       </c>
@@ -27344,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>45643</v>
       </c>
@@ -27388,7 +27392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>45644</v>
       </c>
@@ -27432,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>45645</v>
       </c>
@@ -27476,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>45646</v>
       </c>
@@ -27523,7 +27527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>45647</v>
       </c>
@@ -27570,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>45648</v>
       </c>
@@ -27617,7 +27621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>45649</v>
       </c>
@@ -27664,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>45672</v>
       </c>
@@ -27717,7 +27721,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>45678</v>
       </c>
@@ -27752,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>45679</v>
       </c>
@@ -27799,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>45680</v>
       </c>
@@ -27843,7 +27847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>45681</v>
       </c>
@@ -27896,7 +27900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>45690</v>
       </c>
@@ -27931,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>45692</v>
       </c>
@@ -27978,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>45693</v>
       </c>
@@ -28025,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>45694</v>
       </c>
@@ -28081,7 +28085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>45696</v>
       </c>
@@ -28128,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>45697</v>
       </c>
@@ -28172,7 +28176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>45698</v>
       </c>
@@ -28219,7 +28223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>45699</v>
       </c>
@@ -28263,7 +28267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>45700</v>
       </c>
@@ -28307,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>45701</v>
       </c>
@@ -28351,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>45703</v>
       </c>
@@ -28395,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>45704</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>45705</v>
       </c>
@@ -28489,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>45706</v>
       </c>
@@ -28536,7 +28540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>45707</v>
       </c>
@@ -28583,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>45708</v>
       </c>
@@ -28624,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>45709</v>
       </c>
@@ -28671,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>45710</v>
       </c>
@@ -28715,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>45711</v>
       </c>
@@ -28762,7 +28766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>45712</v>
       </c>
@@ -28809,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>45713</v>
       </c>
@@ -28853,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>45714</v>
       </c>
@@ -28912,7 +28916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>45731</v>
       </c>
@@ -28956,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>45733</v>
       </c>
@@ -29006,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>45736</v>
       </c>
@@ -29050,7 +29054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>45737</v>
       </c>
@@ -29082,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>45741</v>
       </c>
@@ -29141,7 +29145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>45747</v>
       </c>
@@ -29188,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>45749</v>
       </c>
@@ -29235,7 +29239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>45750</v>
       </c>
@@ -29279,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>45751</v>
       </c>
@@ -29326,7 +29330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>45753</v>
       </c>
@@ -29376,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>45754</v>
       </c>
@@ -29411,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>45755</v>
       </c>
@@ -29446,7 +29450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>45760</v>
       </c>
@@ -29490,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>45765</v>
       </c>
@@ -29525,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>45770</v>
       </c>
@@ -29572,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>45771</v>
       </c>
@@ -29616,7 +29620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>45772</v>
       </c>
@@ -29660,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>45773</v>
       </c>
@@ -29707,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>45774</v>
       </c>
@@ -29751,7 +29755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>45775</v>
       </c>
@@ -29807,7 +29811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>45776</v>
       </c>
@@ -29854,7 +29858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>45777</v>
       </c>
@@ -29901,7 +29905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>45778</v>
       </c>
@@ -29957,7 +29961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>45779</v>
       </c>
@@ -30016,7 +30020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>45794</v>
       </c>
@@ -30060,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>45795</v>
       </c>
@@ -30107,7 +30111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>45796</v>
       </c>
@@ -30151,7 +30155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>45797</v>
       </c>
@@ -30195,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>45798</v>
       </c>
@@ -30242,7 +30246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>45799</v>
       </c>
@@ -30286,7 +30290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>45800</v>
       </c>
@@ -30330,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>45801</v>
       </c>
@@ -30374,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>45802</v>
       </c>
@@ -30418,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>45803</v>
       </c>
@@ -30465,7 +30469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>45804</v>
       </c>
@@ -30509,7 +30513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>45805</v>
       </c>
@@ -30553,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>45806</v>
       </c>
@@ -30597,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>45807</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>45808</v>
       </c>
@@ -30688,7 +30692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>45809</v>
       </c>
@@ -30732,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>45813</v>
       </c>
@@ -30779,7 +30783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>45814</v>
       </c>
@@ -30823,7 +30827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>45815</v>
       </c>
@@ -30867,7 +30871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>45816</v>
       </c>
@@ -30911,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>45817</v>
       </c>
@@ -30958,7 +30962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>45819</v>
       </c>
@@ -31011,7 +31015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>45820</v>
       </c>
@@ -31058,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>45821</v>
       </c>
@@ -31105,7 +31109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>45822</v>
       </c>
@@ -31152,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>45823</v>
       </c>
@@ -31199,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>45824</v>
       </c>
@@ -31243,7 +31247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>45825</v>
       </c>
@@ -31290,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>45830</v>
       </c>
@@ -31334,7 +31338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>45832</v>
       </c>
@@ -31381,7 +31385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>45833</v>
       </c>
@@ -31425,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>45844</v>
       </c>
@@ -31460,7 +31464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>45845</v>
       </c>
@@ -31504,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>45848</v>
       </c>
@@ -31566,7 +31570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>45850</v>
       </c>
@@ -31619,7 +31623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>45851</v>
       </c>
@@ -31657,7 +31661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>45852</v>
       </c>
@@ -31701,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>45853</v>
       </c>
@@ -31748,7 +31752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>45879</v>
       </c>
@@ -31795,7 +31799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>45884</v>
       </c>
@@ -31839,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>45886</v>
       </c>
@@ -31886,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>45887</v>
       </c>
@@ -31933,7 +31937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>45888</v>
       </c>
@@ -31980,7 +31984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>45889</v>
       </c>
@@ -32030,7 +32034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>45890</v>
       </c>
@@ -32074,7 +32078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>45891</v>
       </c>
@@ -32121,7 +32125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>45892</v>
       </c>
@@ -32168,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>45893</v>
       </c>
@@ -32215,7 +32219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>45894</v>
       </c>
@@ -32262,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>45895</v>
       </c>
@@ -32309,7 +32313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>45896</v>
       </c>
@@ -32359,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>45897</v>
       </c>
@@ -32406,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>45898</v>
       </c>
@@ -32450,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>45899</v>
       </c>
@@ -32503,7 +32507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>45902</v>
       </c>
@@ -32550,7 +32554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>45904</v>
       </c>
@@ -32597,7 +32601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>45910</v>
       </c>
@@ -32644,7 +32648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>45911</v>
       </c>
@@ -32688,7 +32692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>45912</v>
       </c>
@@ -32732,7 +32736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>45915</v>
       </c>
@@ -32776,7 +32780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>45918</v>
       </c>
@@ -32823,7 +32827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>45919</v>
       </c>
@@ -32864,7 +32868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>45920</v>
       </c>
@@ -32917,7 +32921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>45921</v>
       </c>
@@ -32961,7 +32965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>45922</v>
       </c>
@@ -33005,7 +33009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>45923</v>
       </c>
@@ -33052,7 +33056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>45924</v>
       </c>
@@ -33108,7 +33112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>45925</v>
       </c>
@@ -33155,7 +33159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>45926</v>
       </c>
@@ -33202,7 +33206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>45927</v>
       </c>
@@ -33246,7 +33250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>45928</v>
       </c>
@@ -33293,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>45929</v>
       </c>
@@ -33340,7 +33344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>45930</v>
       </c>
@@ -33387,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>45939</v>
       </c>
@@ -33434,7 +33438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>45941</v>
       </c>
@@ -33481,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>45942</v>
       </c>
@@ -33531,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>45943</v>
       </c>
@@ -33575,7 +33579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>45944</v>
       </c>
@@ -33619,7 +33623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>45946</v>
       </c>
@@ -33666,7 +33670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>45947</v>
       </c>
@@ -33713,7 +33717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>45951</v>
       </c>
@@ -33757,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>45952</v>
       </c>
@@ -33801,7 +33805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>45953</v>
       </c>
@@ -33848,7 +33852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>45956</v>
       </c>
@@ -33886,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>45957</v>
       </c>
@@ -33933,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>45962</v>
       </c>
@@ -33980,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>45971</v>
       </c>
@@ -34024,7 +34028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>45977</v>
       </c>
@@ -34056,7 +34060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>45978</v>
       </c>
@@ -34106,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>45981</v>
       </c>
@@ -34156,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>45982</v>
       </c>
@@ -34209,7 +34213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>45987</v>
       </c>
@@ -34256,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>45992</v>
       </c>
@@ -34321,7 +34325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>45994</v>
       </c>
@@ -34371,7 +34375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>45996</v>
       </c>
@@ -34415,7 +34419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>46002</v>
       </c>
@@ -34474,7 +34478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>46009</v>
       </c>
@@ -34518,7 +34522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>46020</v>
       </c>
@@ -34565,7 +34569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>46021</v>
       </c>
@@ -34615,7 +34619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>46022</v>
       </c>
@@ -34659,7 +34663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>46023</v>
       </c>
@@ -34706,7 +34710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>46025</v>
       </c>
@@ -34756,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>46026</v>
       </c>
@@ -34791,7 +34795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>46027</v>
       </c>
@@ -34847,7 +34851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>46028</v>
       </c>
@@ -34891,7 +34895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>46029</v>
       </c>
@@ -34935,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>46030</v>
       </c>
@@ -34982,7 +34986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>46031</v>
       </c>
@@ -35029,7 +35033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>46033</v>
       </c>
@@ -35073,7 +35077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>46038</v>
       </c>
@@ -35114,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>46040</v>
       </c>
@@ -35158,7 +35162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>46041</v>
       </c>
@@ -35202,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>46042</v>
       </c>
@@ -35246,7 +35250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>46058</v>
       </c>
@@ -35290,7 +35294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>46059</v>
       </c>
@@ -35343,7 +35347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>46060</v>
       </c>
@@ -35396,7 +35400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>46061</v>
       </c>
@@ -35446,7 +35450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>46062</v>
       </c>
@@ -35493,7 +35497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>46063</v>
       </c>
@@ -35540,7 +35544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>46064</v>
       </c>
@@ -35584,7 +35588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>46065</v>
       </c>
@@ -35631,7 +35635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>46066</v>
       </c>
@@ -35687,7 +35691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>46067</v>
       </c>
@@ -35734,7 +35738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>46068</v>
       </c>
@@ -35781,7 +35785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>46069</v>
       </c>
@@ -35825,7 +35829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>46070</v>
       </c>
@@ -35872,7 +35876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>46071</v>
       </c>
@@ -35919,7 +35923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>46072</v>
       </c>
@@ -35966,7 +35970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>46073</v>
       </c>
@@ -36034,7 +36038,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="665" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>46074</v>
       </c>
@@ -36081,7 +36085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>46075</v>
       </c>
@@ -36122,7 +36126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>46077</v>
       </c>
@@ -36166,7 +36170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>46091</v>
       </c>
@@ -36222,7 +36226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>46092</v>
       </c>
@@ -36266,7 +36270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>46096</v>
       </c>
@@ -36310,7 +36314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>46098</v>
       </c>
@@ -36354,7 +36358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>46102</v>
       </c>
@@ -36398,7 +36402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>46103</v>
       </c>
@@ -36442,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>46104</v>
       </c>
@@ -36486,7 +36490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>46105</v>
       </c>
@@ -36530,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>46106</v>
       </c>
@@ -36565,7 +36569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>46107</v>
       </c>
@@ -36609,7 +36613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>46108</v>
       </c>
@@ -36671,7 +36675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="679" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>46109</v>
       </c>
@@ -36715,7 +36719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>46110</v>
       </c>
@@ -36759,7 +36763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>46112</v>
       </c>
@@ -36806,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>46122</v>
       </c>
@@ -36853,7 +36857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>46123</v>
       </c>
@@ -36888,7 +36892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>46126</v>
       </c>
@@ -36932,7 +36936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>46127</v>
       </c>
@@ -36973,7 +36977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>46129</v>
       </c>
@@ -37020,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>46130</v>
       </c>
@@ -37061,7 +37065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>46131</v>
       </c>
@@ -37105,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>46134</v>
       </c>
@@ -37149,7 +37153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>46139</v>
       </c>
@@ -37193,7 +37197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>46147</v>
       </c>
@@ -37240,7 +37244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>46157</v>
       </c>
@@ -37281,7 +37285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>46158</v>
       </c>
@@ -37322,7 +37326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>46159</v>
       </c>
@@ -37360,7 +37364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>46162</v>
       </c>
@@ -37404,7 +37408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>46163</v>
       </c>
@@ -37448,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>46164</v>
       </c>
@@ -37492,7 +37496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>46166</v>
       </c>
@@ -37536,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>46168</v>
       </c>
@@ -37583,7 +37587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>46176</v>
       </c>
@@ -37630,7 +37634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>46177</v>
       </c>
@@ -37671,7 +37675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>46183</v>
       </c>
@@ -37718,7 +37722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>46192</v>
       </c>
@@ -37762,7 +37766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>46193</v>
       </c>
@@ -37809,7 +37813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>46194</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>46195</v>
       </c>
@@ -37903,7 +37907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>46199</v>
       </c>
@@ -37935,7 +37939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>46221</v>
       </c>
@@ -37982,7 +37986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>46222</v>
       </c>
@@ -38029,7 +38033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>46252</v>
       </c>
@@ -38088,7 +38092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="711" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>46253</v>
       </c>
@@ -38135,7 +38139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>46254</v>
       </c>
@@ -38182,7 +38186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>46255</v>
       </c>
@@ -38229,7 +38233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>46256</v>
       </c>
@@ -38276,7 +38280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>46257</v>
       </c>
@@ -38320,7 +38324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>46275</v>
       </c>
@@ -38370,7 +38374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>46276</v>
       </c>
@@ -38420,7 +38424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>46277</v>
       </c>
@@ -38467,7 +38471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>46278</v>
       </c>
@@ -38514,7 +38518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>46279</v>
       </c>
@@ -38561,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>46280</v>
       </c>
@@ -38608,7 +38612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>46281</v>
       </c>
@@ -38655,7 +38659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>46284</v>
       </c>
@@ -38702,7 +38706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>46285</v>
       </c>
@@ -38746,7 +38750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>46286</v>
       </c>
@@ -38790,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>46287</v>
       </c>
@@ -38837,7 +38841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>46288</v>
       </c>
@@ -38884,7 +38888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>46289</v>
       </c>
@@ -38931,7 +38935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>46290</v>
       </c>
@@ -38975,7 +38979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>46291</v>
       </c>
@@ -39019,7 +39023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>46292</v>
       </c>
@@ -39051,7 +39055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>46297</v>
       </c>
@@ -39095,7 +39099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>46301</v>
       </c>
@@ -39151,7 +39155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="734" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>46303</v>
       </c>
@@ -39192,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>46319</v>
       </c>
@@ -39239,7 +39243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>46320</v>
       </c>
@@ -39286,7 +39290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>46321</v>
       </c>
@@ -39330,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>46325</v>
       </c>
@@ -39377,7 +39381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>46335</v>
       </c>
@@ -39418,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>46340</v>
       </c>
@@ -39465,7 +39469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>46342</v>
       </c>
@@ -39509,7 +39513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>46343</v>
       </c>
@@ -39553,7 +39557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>46353</v>
       </c>
@@ -39597,7 +39601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>46355</v>
       </c>
@@ -39629,7 +39633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>46382</v>
       </c>
@@ -39673,7 +39677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>46388</v>
       </c>
@@ -39705,7 +39709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>46389</v>
       </c>
@@ -39737,7 +39741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>46400</v>
       </c>
@@ -39784,7 +39788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>46403</v>
       </c>
@@ -39828,7 +39832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>46407</v>
       </c>
@@ -39875,7 +39879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>46409</v>
       </c>
@@ -39922,7 +39926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>46410</v>
       </c>
@@ -39969,7 +39973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>46411</v>
       </c>
@@ -40016,7 +40020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>46412</v>
       </c>
@@ -40063,7 +40067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>46413</v>
       </c>
@@ -40095,7 +40099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>46417</v>
       </c>
@@ -40139,7 +40143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>46419</v>
       </c>
@@ -40186,7 +40190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>46421</v>
       </c>
@@ -40239,7 +40243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>46422</v>
       </c>
@@ -40280,7 +40284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>46425</v>
       </c>
@@ -40339,7 +40343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>46426</v>
       </c>
@@ -40398,7 +40402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>46466</v>
       </c>

--- a/public/Reservas.xlsx
+++ b/public/Reservas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE79550-8915-40D6-BC4D-0D8DFD8C7E85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F99D8B-3EB5-422E-A9A3-87981994597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5311,10 +5311,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="Q97" sqref="Q97"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40444,6 +40444,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC762" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>